--- a/usanew/usa2016_try2/error_distribution.xlsx
+++ b/usanew/usa2016_try2/error_distribution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="3260" windowWidth="28160" windowHeight="15580" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1340" windowWidth="28160" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -999,13 +999,13 @@
         <v>40</v>
       </c>
       <c r="C19" s="1">
-        <v>6471804</v>
+        <v>6466589</v>
       </c>
       <c r="D19" s="2">
-        <v>1.4319022100727499E-3</v>
+        <v>6.2494523640272987E-4</v>
       </c>
       <c r="E19" s="1">
-        <v>9253.7400000002235</v>
+        <v>4038.7400000002235</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1067,13 +1067,13 @@
         <v>48</v>
       </c>
       <c r="C23" s="1">
-        <v>6455122</v>
+        <v>6467619</v>
       </c>
       <c r="D23" s="2">
-        <v>-1.1494316796229879E-3</v>
+        <v>7.8432504136536089E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>-7428.2599999997765</v>
+        <v>5068.7400000002235</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1220,13 +1220,13 @@
         <v>66</v>
       </c>
       <c r="C32" s="1">
-        <v>6461702</v>
+        <v>6466917</v>
       </c>
       <c r="D32" s="2">
-        <v>-1.3125777995880167E-4</v>
+        <v>6.7569919371121827E-4</v>
       </c>
       <c r="E32" s="1">
-        <v>-848.25999999977648</v>
+        <v>4366.7400000002235</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1271,13 +1271,13 @@
         <v>72</v>
       </c>
       <c r="C35" s="1">
-        <v>6471579</v>
+        <v>6457925</v>
       </c>
       <c r="D35" s="2">
-        <v>1.3970862332605247E-3</v>
+        <v>-7.157019773800222E-4</v>
       </c>
       <c r="E35" s="1">
-        <v>9028.7400000002235</v>
+        <v>-4625.2599999997765</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1475,13 +1475,13 @@
         <v>96</v>
       </c>
       <c r="C47" s="1">
-        <v>6471750</v>
+        <v>6460365</v>
       </c>
       <c r="D47" s="2">
-        <v>1.4235463756378157E-3</v>
+        <v>-3.3814205106077994E-4</v>
       </c>
       <c r="E47" s="1">
-        <v>9199.7400000002235</v>
+        <v>-2185.2599999997765</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1509,13 +1509,13 @@
         <v>100</v>
       </c>
       <c r="C49" s="1">
-        <v>6459303</v>
+        <v>6462658</v>
       </c>
       <c r="D49" s="2">
-        <v>-5.0247346161448288E-4</v>
+        <v>1.6671437074475228E-5</v>
       </c>
       <c r="E49" s="1">
-        <v>-3247.2599999997765</v>
+        <v>107.74000000022352</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1543,13 +1543,13 @@
         <v>104</v>
       </c>
       <c r="C51" s="1">
-        <v>6457936</v>
+        <v>6467123</v>
       </c>
       <c r="D51" s="2">
-        <v>-7.1399986295809115E-4</v>
+        <v>7.0757515470374439E-4</v>
       </c>
       <c r="E51" s="1">
-        <v>-4614.2599999997765</v>
+        <v>4572.7400000002235</v>
       </c>
     </row>
   </sheetData>

--- a/usanew/usa2016_try2/error_distribution.xlsx
+++ b/usanew/usa2016_try2/error_distribution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1340" windowWidth="28160" windowHeight="15580" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1140" windowWidth="28160" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,6 @@
     <t>MC</t>
   </si>
   <si>
-    <t>Hudson Valley</t>
-  </si>
-  <si>
-    <t>HV</t>
-  </si>
-  <si>
     <t>Bostonia</t>
   </si>
   <si>
@@ -342,6 +336,12 @@
   </si>
   <si>
     <t>MG</t>
+  </si>
+  <si>
+    <t>Outer City</t>
+  </si>
+  <si>
+    <t>OC</t>
   </si>
 </sst>
 </file>
@@ -710,13 +710,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>6463051</v>
+        <v>6469300</v>
       </c>
       <c r="D2" s="2">
-        <v>7.7483343239828599E-5</v>
+        <v>7.8452360934890735E-4</v>
       </c>
       <c r="E2" s="1">
-        <v>500.74000000022352</v>
+        <v>5071.339999999851</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -727,829 +727,829 @@
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>6461099</v>
+        <v>6463515</v>
       </c>
       <c r="D3" s="2">
-        <v>-2.2456459781556524E-4</v>
+        <v>-1.1040141640041381E-4</v>
       </c>
       <c r="E3" s="1">
-        <v>-1451.2599999997765</v>
+        <v>-713.66000000014901</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1">
-        <v>6459399</v>
+        <v>6472616</v>
       </c>
       <c r="D4" s="2">
-        <v>-4.876186448412668E-4</v>
+        <v>1.2975005126133411E-3</v>
       </c>
       <c r="E4" s="1">
-        <v>-3151.2599999997765</v>
+        <v>8387.339999999851</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>6463833</v>
       </c>
       <c r="D5" s="2">
-        <v>1.9848820487165133E-4</v>
+        <v>-6.1207612046345678E-5</v>
       </c>
       <c r="E5" s="1">
-        <v>1282.7400000002235</v>
+        <v>-395.66000000014901</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>6463721</v>
+        <v>6463782</v>
       </c>
       <c r="D6" s="2">
-        <v>1.8115758530289923E-4</v>
+        <v>-6.9097184442752838E-5</v>
       </c>
       <c r="E6" s="1">
-        <v>1170.7400000002235</v>
+        <v>-446.66000000014901</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>6457674</v>
+        <v>6468395</v>
       </c>
       <c r="D7" s="2">
-        <v>-7.5454113373499341E-4</v>
+        <v>6.4452237368717259E-4</v>
       </c>
       <c r="E7" s="1">
-        <v>-4876.2599999997765</v>
+        <v>4166.339999999851</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>6465841</v>
+        <v>6459160</v>
       </c>
       <c r="D8" s="2">
-        <v>5.0920145571142121E-4</v>
+        <v>-7.8410902005439712E-4</v>
       </c>
       <c r="E8" s="1">
-        <v>3290.7400000002235</v>
+        <v>-5068.660000000149</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>6459366</v>
       </c>
       <c r="D9" s="2">
-        <v>-4.9272498810705987E-4</v>
+        <v>-7.52241335472831E-4</v>
       </c>
       <c r="E9" s="1">
-        <v>-3184.2599999997765</v>
+        <v>-4862.660000000149</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
-        <v>6454978</v>
+        <v>6471572</v>
       </c>
       <c r="D10" s="2">
-        <v>-1.171713904782812E-3</v>
+        <v>1.1359963247339476E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>-7572.2599999997765</v>
+        <v>7343.339999999851</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
-        <v>6464885</v>
+        <v>6464882</v>
       </c>
       <c r="D11" s="2">
-        <v>3.612722386781443E-4</v>
+        <v>1.0107006332289164E-4</v>
       </c>
       <c r="E11" s="1">
-        <v>2334.7400000002235</v>
+        <v>653.33999999985099</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>6461064</v>
+        <v>6463403</v>
       </c>
       <c r="D12" s="2">
-        <v>-2.2998041643080026E-4</v>
+        <v>-1.277275361729158E-4</v>
       </c>
       <c r="E12" s="1">
-        <v>-1486.2599999997765</v>
+        <v>-825.66000000014901</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
-        <v>6460208</v>
+        <v>6473305</v>
       </c>
       <c r="D13" s="2">
-        <v>-3.6243586599197706E-4</v>
+        <v>1.4040870887138219E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>-2342.2599999997765</v>
+        <v>9076.339999999851</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>6456233</v>
       </c>
       <c r="D14" s="2">
-        <v>-9.7751812300795574E-4</v>
+        <v>-1.2369085966089802E-3</v>
       </c>
       <c r="E14" s="1">
-        <v>-6317.2599999997765</v>
+        <v>-7995.660000000149</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
         <v>6465918</v>
       </c>
       <c r="D15" s="2">
-        <v>5.2111625666493829E-4</v>
+        <v>2.61336671218535E-4</v>
       </c>
       <c r="E15" s="1">
-        <v>3367.7400000002235</v>
+        <v>1689.339999999851</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
         <v>6465094</v>
       </c>
       <c r="D16" s="2">
-        <v>3.9361241269483349E-4</v>
+        <v>1.338659328922704E-4</v>
       </c>
       <c r="E16" s="1">
-        <v>2543.7400000002235</v>
+        <v>865.33999999985099</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>6467062</v>
       </c>
       <c r="D17" s="2">
-        <v>6.9813615654576336E-4</v>
+        <v>4.3831060889480526E-4</v>
       </c>
       <c r="E17" s="1">
-        <v>4511.7400000002235</v>
+        <v>2833.339999999851</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
         <v>6463601</v>
       </c>
       <c r="D18" s="2">
-        <v>1.6258906433637912E-4</v>
+        <v>-9.709743157509979E-5</v>
       </c>
       <c r="E18" s="1">
-        <v>1050.7400000002235</v>
+        <v>-627.66000000014901</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1">
-        <v>6466589</v>
+        <v>6471804</v>
       </c>
       <c r="D19" s="2">
-        <v>6.2494523640272987E-4</v>
+        <v>1.1718861442627016E-3</v>
       </c>
       <c r="E19" s="1">
-        <v>4038.7400000002235</v>
+        <v>7575.339999999851</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <v>6458165</v>
       </c>
       <c r="D20" s="2">
-        <v>-6.7856493544698202E-4</v>
+        <v>-9.38033030533321E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>-4385.2599999997765</v>
+        <v>-6063.660000000149</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
-        <v>6462597</v>
+        <v>6462530</v>
       </c>
       <c r="D21" s="2">
-        <v>7.2324389164941706E-6</v>
+        <v>-2.6277845189964999E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>46.740000000223517</v>
+        <v>-1698.660000000149</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1">
         <v>6458177</v>
       </c>
       <c r="D22" s="2">
-        <v>-6.7670808335032993E-4</v>
+        <v>-9.3617666055769583E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>-4373.2599999997765</v>
+        <v>-6051.660000000149</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1">
-        <v>6467619</v>
+        <v>6455122</v>
       </c>
       <c r="D23" s="2">
-        <v>7.8432504136536089E-4</v>
+        <v>-1.4087775168522812E-3</v>
       </c>
       <c r="E23" s="1">
-        <v>5068.7400000002235</v>
+        <v>-9106.660000000149</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1">
         <v>6464834</v>
       </c>
       <c r="D24" s="2">
-        <v>3.5338061726737326E-4</v>
+        <v>9.3644583420390788E-5</v>
       </c>
       <c r="E24" s="1">
-        <v>2283.7400000002235</v>
+        <v>605.33999999985099</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1">
         <v>6469995</v>
       </c>
       <c r="D25" s="2">
-        <v>1.151981756502459E-3</v>
+        <v>8.9203837043720093E-4</v>
       </c>
       <c r="E25" s="1">
-        <v>7444.7400000002235</v>
+        <v>5766.339999999851</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1">
-        <v>6463650</v>
+        <v>6461311</v>
       </c>
       <c r="D26" s="2">
-        <v>1.7017121039770815E-4</v>
+        <v>-4.5135470192357786E-4</v>
       </c>
       <c r="E26" s="1">
-        <v>1099.7400000002235</v>
+        <v>-2917.660000000149</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1">
-        <v>6460938</v>
+        <v>6468449</v>
       </c>
       <c r="D27" s="2">
-        <v>-2.4947736344564636E-4</v>
+        <v>6.5287603857748608E-4</v>
       </c>
       <c r="E27" s="1">
-        <v>-1612.2599999997765</v>
+        <v>4220.339999999851</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1">
-        <v>6459706</v>
+        <v>6459242</v>
       </c>
       <c r="D28" s="2">
-        <v>-4.4011417870191955E-4</v>
+        <v>-7.7142382522095822E-4</v>
       </c>
       <c r="E28" s="1">
-        <v>-2844.2599999997765</v>
+        <v>-4986.660000000149</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1">
-        <v>6461339</v>
+        <v>6464912</v>
       </c>
       <c r="D29" s="2">
-        <v>-1.8742755588252501E-4</v>
+        <v>1.0571098826195467E-4</v>
       </c>
       <c r="E29" s="1">
-        <v>-1211.2599999997765</v>
+        <v>683.33999999985099</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1">
-        <v>6466193</v>
+        <v>6464993</v>
       </c>
       <c r="D30" s="2">
-        <v>5.6366911721321357E-4</v>
+        <v>1.1824148559742486E-4</v>
       </c>
       <c r="E30" s="1">
-        <v>3642.7400000002235</v>
+        <v>764.33999999985099</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1">
         <v>6461713</v>
       </c>
       <c r="D31" s="2">
-        <v>-1.2955566553687065E-4</v>
+        <v>-3.8916630774013322E-4</v>
       </c>
       <c r="E31" s="1">
-        <v>-837.25999999977648</v>
+        <v>-2515.660000000149</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1">
-        <v>6466917</v>
+        <v>6461702</v>
       </c>
       <c r="D32" s="2">
-        <v>6.7569919371121827E-4</v>
+        <v>-3.9086798021778968E-4</v>
       </c>
       <c r="E32" s="1">
-        <v>4366.7400000002235</v>
+        <v>-2526.660000000149</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1">
-        <v>6467302</v>
+        <v>6460297</v>
       </c>
       <c r="D33" s="2">
-        <v>7.3527319847880353E-4</v>
+        <v>-6.0821796486390826E-4</v>
       </c>
       <c r="E33" s="1">
-        <v>4751.7400000002235</v>
+        <v>-3931.660000000149</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1">
         <v>6458519</v>
       </c>
       <c r="D34" s="2">
-        <v>-6.2378779859574769E-4</v>
+        <v>-8.8327011625237721E-4</v>
       </c>
       <c r="E34" s="1">
-        <v>-4031.2599999997765</v>
+        <v>-5709.660000000149</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1">
-        <v>6457925</v>
+        <v>6471579</v>
       </c>
       <c r="D35" s="2">
-        <v>-7.157019773800222E-4</v>
+        <v>1.137079207219729E-3</v>
       </c>
       <c r="E35" s="1">
-        <v>-4625.2599999997765</v>
+        <v>7350.339999999851</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1">
         <v>6469287</v>
       </c>
       <c r="D36" s="2">
-        <v>1.0424274827999904E-3</v>
+        <v>7.8251254187531336E-4</v>
       </c>
       <c r="E36" s="1">
-        <v>6736.7400000002235</v>
+        <v>5058.339999999851</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1">
-        <v>6465022</v>
+        <v>6466096</v>
       </c>
       <c r="D37" s="2">
-        <v>3.8247130011492142E-4</v>
+        <v>2.8887282585697566E-4</v>
       </c>
       <c r="E37" s="1">
-        <v>2471.7400000002235</v>
+        <v>1867.339999999851</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1">
-        <v>6463581</v>
+        <v>6471428</v>
       </c>
       <c r="D38" s="2">
-        <v>1.5949431084195909E-4</v>
+        <v>1.1137198850264451E-3</v>
       </c>
       <c r="E38" s="1">
-        <v>1030.7400000002235</v>
+        <v>7199.339999999851</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1">
-        <v>6463516</v>
+        <v>6456823</v>
       </c>
       <c r="D39" s="2">
-        <v>1.4943636198509402E-4</v>
+        <v>-1.1456370728074074E-3</v>
       </c>
       <c r="E39" s="1">
-        <v>965.74000000022352</v>
+        <v>-7405.660000000149</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" s="1">
-        <v>6460477</v>
+        <v>6456684</v>
       </c>
       <c r="D40" s="2">
-        <v>-3.2081143149202782E-4</v>
+        <v>-1.1671400250250659E-3</v>
       </c>
       <c r="E40" s="1">
-        <v>-2073.2599999997765</v>
+        <v>-7544.660000000149</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1">
-        <v>6465309</v>
+        <v>6462730</v>
       </c>
       <c r="D41" s="2">
-        <v>4.2688101275984873E-4</v>
+        <v>-2.3183895230589646E-4</v>
       </c>
       <c r="E41" s="1">
-        <v>2758.7400000002235</v>
+        <v>-1498.660000000149</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" s="1">
-        <v>6456533</v>
+        <v>6469817</v>
       </c>
       <c r="D42" s="2">
-        <v>-9.3109682059165546E-4</v>
+        <v>8.6450221579876022E-4</v>
       </c>
       <c r="E42" s="1">
-        <v>-6017.2599999997765</v>
+        <v>5588.339999999851</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1">
-        <v>6459088</v>
+        <v>6460672</v>
       </c>
       <c r="D43" s="2">
-        <v>-5.3574206167949806E-4</v>
+        <v>-5.5020640312562037E-4</v>
       </c>
       <c r="E43" s="1">
-        <v>-3462.2599999997765</v>
+        <v>-3556.660000000149</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="1">
-        <v>6463117</v>
+        <v>6464738</v>
       </c>
       <c r="D44" s="2">
-        <v>8.7696029771414658E-5</v>
+        <v>7.8793623615389094E-5</v>
       </c>
       <c r="E44" s="1">
-        <v>566.74000000022352</v>
+        <v>509.33999999985099</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="1">
         <v>6465674</v>
       </c>
       <c r="D45" s="2">
-        <v>4.8336026403301405E-4</v>
+        <v>2.2359048171415567E-4</v>
       </c>
       <c r="E45" s="1">
-        <v>3123.7400000002235</v>
+        <v>1445.339999999851</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1">
         <v>6459686</v>
       </c>
       <c r="D46" s="2">
-        <v>-4.4320893219633955E-4</v>
+        <v>-7.0273813612282531E-4</v>
       </c>
       <c r="E46" s="1">
-        <v>-2864.2599999997765</v>
+        <v>-4542.660000000149</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" s="1">
-        <v>6460365</v>
+        <v>6471750</v>
       </c>
       <c r="D47" s="2">
-        <v>-3.3814205106077994E-4</v>
+        <v>1.1635324793723882E-3</v>
       </c>
       <c r="E47" s="1">
-        <v>-2185.2599999997765</v>
+        <v>7521.339999999851</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1">
         <v>6465706</v>
       </c>
       <c r="D48" s="2">
-        <v>4.8831186962408613E-4</v>
+        <v>2.2854080164915624E-4</v>
       </c>
       <c r="E48" s="1">
-        <v>3155.7400000002235</v>
+        <v>1477.339999999851</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" s="1">
-        <v>6462658</v>
+        <v>6459303</v>
       </c>
       <c r="D49" s="2">
-        <v>1.6671437074475228E-5</v>
+        <v>-7.6198727784486343E-4</v>
       </c>
       <c r="E49" s="1">
-        <v>107.74000000022352</v>
+        <v>-4925.660000000149</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" s="1">
-        <v>6455166</v>
+        <v>6468722</v>
       </c>
       <c r="D50" s="2">
-        <v>-1.1426232219352637E-3</v>
+        <v>6.9510845552295958E-4</v>
       </c>
       <c r="E50" s="1">
-        <v>-7384.2599999997765</v>
+        <v>4493.339999999851</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C51" s="1">
-        <v>6467123</v>
+        <v>6457936</v>
       </c>
       <c r="D51" s="2">
-        <v>7.0757515470374439E-4</v>
+        <v>-9.7345875756816886E-4</v>
       </c>
       <c r="E51" s="1">
-        <v>4572.7400000002235</v>
+        <v>-6292.660000000149</v>
       </c>
     </row>
   </sheetData>

--- a/usanew/usa2016_try2/error_distribution.xlsx
+++ b/usanew/usa2016_try2/error_distribution.xlsx
@@ -338,10 +338,10 @@
     <t>MG</t>
   </si>
   <si>
-    <t>Outer City</t>
-  </si>
-  <si>
-    <t>OC</t>
+    <t>Hudson Valley</t>
+  </si>
+  <si>
+    <t>HV</t>
   </si>
 </sst>
 </file>
@@ -710,13 +710,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>6469300</v>
+        <v>6466813</v>
       </c>
       <c r="D2" s="2">
-        <v>7.8452360934890735E-4</v>
+        <v>6.5960647554023412E-4</v>
       </c>
       <c r="E2" s="1">
-        <v>5071.339999999851</v>
+        <v>4262.7400000002235</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -727,13 +727,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>6463515</v>
+        <v>6456151</v>
       </c>
       <c r="D3" s="2">
-        <v>-1.1040141640041381E-4</v>
+        <v>-9.9020661233507781E-4</v>
       </c>
       <c r="E3" s="1">
-        <v>-713.66000000014901</v>
+        <v>-6399.2599999997765</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -744,13 +744,13 @@
         <v>104</v>
       </c>
       <c r="C4" s="1">
-        <v>6472616</v>
+        <v>6460585</v>
       </c>
       <c r="D4" s="2">
-        <v>1.2975005126133411E-3</v>
+        <v>-3.0409976262215971E-4</v>
       </c>
       <c r="E4" s="1">
-        <v>8387.339999999851</v>
+        <v>-1965.2599999997765</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -764,10 +764,10 @@
         <v>6463833</v>
       </c>
       <c r="D5" s="2">
-        <v>-6.1207612046345678E-5</v>
+        <v>1.9848820487165133E-4</v>
       </c>
       <c r="E5" s="1">
-        <v>-395.66000000014901</v>
+        <v>1282.7400000002235</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -778,13 +778,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>6463782</v>
+        <v>6463721</v>
       </c>
       <c r="D6" s="2">
-        <v>-6.9097184442752838E-5</v>
+        <v>1.8115758530289923E-4</v>
       </c>
       <c r="E6" s="1">
-        <v>-446.66000000014901</v>
+        <v>1170.7400000002235</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -795,13 +795,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>6468395</v>
+        <v>6457857</v>
       </c>
       <c r="D7" s="2">
-        <v>6.4452237368717259E-4</v>
+        <v>-7.2622413926105031E-4</v>
       </c>
       <c r="E7" s="1">
-        <v>4166.339999999851</v>
+        <v>-4693.2599999997765</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -812,13 +812,13 @@
         <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>6459160</v>
+        <v>6465841</v>
       </c>
       <c r="D8" s="2">
-        <v>-7.8410902005439712E-4</v>
+        <v>5.0920145571142121E-4</v>
       </c>
       <c r="E8" s="1">
-        <v>-5068.660000000149</v>
+        <v>3290.7400000002235</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -832,10 +832,10 @@
         <v>6459366</v>
       </c>
       <c r="D9" s="2">
-        <v>-7.52241335472831E-4</v>
+        <v>-4.9272498810705987E-4</v>
       </c>
       <c r="E9" s="1">
-        <v>-4862.660000000149</v>
+        <v>-3184.2599999997765</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -846,13 +846,13 @@
         <v>20</v>
       </c>
       <c r="C10" s="1">
-        <v>6471572</v>
+        <v>6454795</v>
       </c>
       <c r="D10" s="2">
-        <v>1.1359963247339476E-3</v>
+        <v>-1.2000308992567551E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>7343.339999999851</v>
+        <v>-7755.2599999997765</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -863,13 +863,13 @@
         <v>22</v>
       </c>
       <c r="C11" s="1">
-        <v>6464882</v>
+        <v>6459897</v>
       </c>
       <c r="D11" s="2">
-        <v>1.0107006332289164E-4</v>
+        <v>-4.1055928283020837E-4</v>
       </c>
       <c r="E11" s="1">
-        <v>653.33999999985099</v>
+        <v>-2653.2599999997765</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -880,13 +880,13 @@
         <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>6463403</v>
+        <v>6455757</v>
       </c>
       <c r="D12" s="2">
-        <v>-1.277275361729158E-4</v>
+        <v>-1.0511732561751521E-3</v>
       </c>
       <c r="E12" s="1">
-        <v>-825.66000000014901</v>
+        <v>-6793.2599999997765</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -897,13 +897,13 @@
         <v>26</v>
       </c>
       <c r="C13" s="1">
-        <v>6473305</v>
+        <v>6460208</v>
       </c>
       <c r="D13" s="2">
-        <v>1.4040870887138219E-3</v>
+        <v>-3.6243586599197706E-4</v>
       </c>
       <c r="E13" s="1">
-        <v>9076.339999999851</v>
+        <v>-2342.2599999997765</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -917,10 +917,10 @@
         <v>6456233</v>
       </c>
       <c r="D14" s="2">
-        <v>-1.2369085966089802E-3</v>
+        <v>-9.7751812300795574E-4</v>
       </c>
       <c r="E14" s="1">
-        <v>-7995.660000000149</v>
+        <v>-6317.2599999997765</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -934,10 +934,10 @@
         <v>6465918</v>
       </c>
       <c r="D15" s="2">
-        <v>2.61336671218535E-4</v>
+        <v>5.2111625666493829E-4</v>
       </c>
       <c r="E15" s="1">
-        <v>1689.339999999851</v>
+        <v>3367.7400000002235</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -951,10 +951,10 @@
         <v>6465094</v>
       </c>
       <c r="D16" s="2">
-        <v>1.338659328922704E-4</v>
+        <v>3.9361241269483349E-4</v>
       </c>
       <c r="E16" s="1">
-        <v>865.33999999985099</v>
+        <v>2543.7400000002235</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -968,10 +968,10 @@
         <v>6467062</v>
       </c>
       <c r="D17" s="2">
-        <v>4.3831060889480526E-4</v>
+        <v>6.9813615654576336E-4</v>
       </c>
       <c r="E17" s="1">
-        <v>2833.339999999851</v>
+        <v>4511.7400000002235</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -985,10 +985,10 @@
         <v>6463601</v>
       </c>
       <c r="D18" s="2">
-        <v>-9.709743157509979E-5</v>
+        <v>1.6258906433637912E-4</v>
       </c>
       <c r="E18" s="1">
-        <v>-627.66000000014901</v>
+        <v>1050.7400000002235</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -999,13 +999,13 @@
         <v>38</v>
       </c>
       <c r="C19" s="1">
-        <v>6471804</v>
+        <v>6466589</v>
       </c>
       <c r="D19" s="2">
-        <v>1.1718861442627016E-3</v>
+        <v>6.2494523640272987E-4</v>
       </c>
       <c r="E19" s="1">
-        <v>7575.339999999851</v>
+        <v>4038.7400000002235</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1019,10 +1019,10 @@
         <v>6458165</v>
       </c>
       <c r="D20" s="2">
-        <v>-9.38033030533321E-4</v>
+        <v>-6.7856493544698202E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>-6063.660000000149</v>
+        <v>-4385.2599999997765</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1033,13 +1033,13 @@
         <v>42</v>
       </c>
       <c r="C21" s="1">
-        <v>6462530</v>
+        <v>6462597</v>
       </c>
       <c r="D21" s="2">
-        <v>-2.6277845189964999E-4</v>
+        <v>7.2324389164941706E-6</v>
       </c>
       <c r="E21" s="1">
-        <v>-1698.660000000149</v>
+        <v>46.740000000223517</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1053,10 +1053,10 @@
         <v>6458177</v>
       </c>
       <c r="D22" s="2">
-        <v>-9.3617666055769583E-4</v>
+        <v>-6.7670808335032993E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>-6051.660000000149</v>
+        <v>-4373.2599999997765</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1067,13 +1067,13 @@
         <v>46</v>
       </c>
       <c r="C23" s="1">
-        <v>6455122</v>
+        <v>6467619</v>
       </c>
       <c r="D23" s="2">
-        <v>-1.4087775168522812E-3</v>
+        <v>7.8432504136536089E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>-9106.660000000149</v>
+        <v>5068.7400000002235</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1087,10 +1087,10 @@
         <v>6464834</v>
       </c>
       <c r="D24" s="2">
-        <v>9.3644583420390788E-5</v>
+        <v>3.5338061726737326E-4</v>
       </c>
       <c r="E24" s="1">
-        <v>605.33999999985099</v>
+        <v>2283.7400000002235</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1104,10 +1104,10 @@
         <v>6469995</v>
       </c>
       <c r="D25" s="2">
-        <v>8.9203837043720093E-4</v>
+        <v>1.151981756502459E-3</v>
       </c>
       <c r="E25" s="1">
-        <v>5766.339999999851</v>
+        <v>7444.7400000002235</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1118,13 +1118,13 @@
         <v>52</v>
       </c>
       <c r="C26" s="1">
-        <v>6461311</v>
+        <v>6468957</v>
       </c>
       <c r="D26" s="2">
-        <v>-4.5135470192357786E-4</v>
+        <v>9.9136405014206021E-4</v>
       </c>
       <c r="E26" s="1">
-        <v>-2917.660000000149</v>
+        <v>6406.7400000002235</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1135,13 +1135,13 @@
         <v>54</v>
       </c>
       <c r="C27" s="1">
-        <v>6468449</v>
+        <v>6465926</v>
       </c>
       <c r="D27" s="2">
-        <v>6.5287603857748608E-4</v>
+        <v>5.2235415806270631E-4</v>
       </c>
       <c r="E27" s="1">
-        <v>4220.339999999851</v>
+        <v>3375.7400000002235</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1152,13 +1152,13 @@
         <v>56</v>
       </c>
       <c r="C28" s="1">
-        <v>6459242</v>
+        <v>6459706</v>
       </c>
       <c r="D28" s="2">
-        <v>-7.7142382522095822E-4</v>
+        <v>-4.4011417870191955E-4</v>
       </c>
       <c r="E28" s="1">
-        <v>-4986.660000000149</v>
+        <v>-2844.2599999997765</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,13 +1169,13 @@
         <v>58</v>
       </c>
       <c r="C29" s="1">
-        <v>6464912</v>
+        <v>6461339</v>
       </c>
       <c r="D29" s="2">
-        <v>1.0571098826195467E-4</v>
+        <v>-1.8742755588252501E-4</v>
       </c>
       <c r="E29" s="1">
-        <v>683.33999999985099</v>
+        <v>-1211.2599999997765</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1186,13 +1186,13 @@
         <v>60</v>
       </c>
       <c r="C30" s="1">
-        <v>6464993</v>
+        <v>6466193</v>
       </c>
       <c r="D30" s="2">
-        <v>1.1824148559742486E-4</v>
+        <v>5.6366911721321357E-4</v>
       </c>
       <c r="E30" s="1">
-        <v>764.33999999985099</v>
+        <v>3642.7400000002235</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1206,10 +1206,10 @@
         <v>6461713</v>
       </c>
       <c r="D31" s="2">
-        <v>-3.8916630774013322E-4</v>
+        <v>-1.2955566553687065E-4</v>
       </c>
       <c r="E31" s="1">
-        <v>-2515.660000000149</v>
+        <v>-837.25999999977648</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1220,13 +1220,13 @@
         <v>64</v>
       </c>
       <c r="C32" s="1">
-        <v>6461702</v>
+        <v>6466917</v>
       </c>
       <c r="D32" s="2">
-        <v>-3.9086798021778968E-4</v>
+        <v>6.7569919371121827E-4</v>
       </c>
       <c r="E32" s="1">
-        <v>-2526.660000000149</v>
+        <v>4366.7400000002235</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1237,13 +1237,13 @@
         <v>66</v>
       </c>
       <c r="C33" s="1">
-        <v>6460297</v>
+        <v>6467302</v>
       </c>
       <c r="D33" s="2">
-        <v>-6.0821796486390826E-4</v>
+        <v>7.3527319847880353E-4</v>
       </c>
       <c r="E33" s="1">
-        <v>-3931.660000000149</v>
+        <v>4751.7400000002235</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1257,10 +1257,10 @@
         <v>6458519</v>
       </c>
       <c r="D34" s="2">
-        <v>-8.8327011625237721E-4</v>
+        <v>-6.2378779859574769E-4</v>
       </c>
       <c r="E34" s="1">
-        <v>-5709.660000000149</v>
+        <v>-4031.2599999997765</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1271,13 +1271,13 @@
         <v>70</v>
       </c>
       <c r="C35" s="1">
-        <v>6471579</v>
+        <v>6457925</v>
       </c>
       <c r="D35" s="2">
-        <v>1.137079207219729E-3</v>
+        <v>-7.157019773800222E-4</v>
       </c>
       <c r="E35" s="1">
-        <v>7350.339999999851</v>
+        <v>-4625.2599999997765</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1291,10 +1291,10 @@
         <v>6469287</v>
       </c>
       <c r="D36" s="2">
-        <v>7.8251254187531336E-4</v>
+        <v>1.0424274827999904E-3</v>
       </c>
       <c r="E36" s="1">
-        <v>5058.339999999851</v>
+        <v>6736.7400000002235</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1305,13 +1305,13 @@
         <v>74</v>
       </c>
       <c r="C37" s="1">
-        <v>6466096</v>
+        <v>6465022</v>
       </c>
       <c r="D37" s="2">
-        <v>2.8887282585697566E-4</v>
+        <v>3.8247130011492142E-4</v>
       </c>
       <c r="E37" s="1">
-        <v>1867.339999999851</v>
+        <v>2471.7400000002235</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1322,13 +1322,13 @@
         <v>76</v>
       </c>
       <c r="C38" s="1">
-        <v>6471428</v>
+        <v>6463581</v>
       </c>
       <c r="D38" s="2">
-        <v>1.1137198850264451E-3</v>
+        <v>1.5949431084195909E-4</v>
       </c>
       <c r="E38" s="1">
-        <v>7199.339999999851</v>
+        <v>1030.7400000002235</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1339,13 +1339,13 @@
         <v>78</v>
       </c>
       <c r="C39" s="1">
-        <v>6456823</v>
+        <v>6463516</v>
       </c>
       <c r="D39" s="2">
-        <v>-1.1456370728074074E-3</v>
+        <v>1.4943636198509402E-4</v>
       </c>
       <c r="E39" s="1">
-        <v>-7405.660000000149</v>
+        <v>965.74000000022352</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1356,13 +1356,13 @@
         <v>80</v>
       </c>
       <c r="C40" s="1">
-        <v>6456684</v>
+        <v>6460477</v>
       </c>
       <c r="D40" s="2">
-        <v>-1.1671400250250659E-3</v>
+        <v>-3.2081143149202782E-4</v>
       </c>
       <c r="E40" s="1">
-        <v>-7544.660000000149</v>
+        <v>-2073.2599999997765</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1373,13 +1373,13 @@
         <v>82</v>
       </c>
       <c r="C41" s="1">
-        <v>6462730</v>
+        <v>6465309</v>
       </c>
       <c r="D41" s="2">
-        <v>-2.3183895230589646E-4</v>
+        <v>4.2688101275984873E-4</v>
       </c>
       <c r="E41" s="1">
-        <v>-1498.660000000149</v>
+        <v>2758.7400000002235</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1390,13 +1390,13 @@
         <v>84</v>
       </c>
       <c r="C42" s="1">
-        <v>6469817</v>
+        <v>6456533</v>
       </c>
       <c r="D42" s="2">
-        <v>8.6450221579876022E-4</v>
+        <v>-9.3109682059165546E-4</v>
       </c>
       <c r="E42" s="1">
-        <v>5588.339999999851</v>
+        <v>-6017.2599999997765</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1407,13 +1407,13 @@
         <v>86</v>
       </c>
       <c r="C43" s="1">
-        <v>6460672</v>
+        <v>6459088</v>
       </c>
       <c r="D43" s="2">
-        <v>-5.5020640312562037E-4</v>
+        <v>-5.3574206167949806E-4</v>
       </c>
       <c r="E43" s="1">
-        <v>-3556.660000000149</v>
+        <v>-3462.2599999997765</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1424,13 +1424,13 @@
         <v>88</v>
       </c>
       <c r="C44" s="1">
-        <v>6464738</v>
+        <v>6463117</v>
       </c>
       <c r="D44" s="2">
-        <v>7.8793623615389094E-5</v>
+        <v>8.7696029771414658E-5</v>
       </c>
       <c r="E44" s="1">
-        <v>509.33999999985099</v>
+        <v>566.74000000022352</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1444,10 +1444,10 @@
         <v>6465674</v>
       </c>
       <c r="D45" s="2">
-        <v>2.2359048171415567E-4</v>
+        <v>4.8336026403301405E-4</v>
       </c>
       <c r="E45" s="1">
-        <v>1445.339999999851</v>
+        <v>3123.7400000002235</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1461,10 +1461,10 @@
         <v>6459686</v>
       </c>
       <c r="D46" s="2">
-        <v>-7.0273813612282531E-4</v>
+        <v>-4.4320893219633955E-4</v>
       </c>
       <c r="E46" s="1">
-        <v>-4542.660000000149</v>
+        <v>-2864.2599999997765</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1475,13 +1475,13 @@
         <v>94</v>
       </c>
       <c r="C47" s="1">
-        <v>6471750</v>
+        <v>6460365</v>
       </c>
       <c r="D47" s="2">
-        <v>1.1635324793723882E-3</v>
+        <v>-3.3814205106077994E-4</v>
       </c>
       <c r="E47" s="1">
-        <v>7521.339999999851</v>
+        <v>-2185.2599999997765</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1495,10 +1495,10 @@
         <v>6465706</v>
       </c>
       <c r="D48" s="2">
-        <v>2.2854080164915624E-4</v>
+        <v>4.8831186962408613E-4</v>
       </c>
       <c r="E48" s="1">
-        <v>1477.339999999851</v>
+        <v>3155.7400000002235</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1509,13 +1509,13 @@
         <v>98</v>
       </c>
       <c r="C49" s="1">
-        <v>6459303</v>
+        <v>6462658</v>
       </c>
       <c r="D49" s="2">
-        <v>-7.6198727784486343E-4</v>
+        <v>1.6671437074475228E-5</v>
       </c>
       <c r="E49" s="1">
-        <v>-4925.660000000149</v>
+        <v>107.74000000022352</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1526,13 +1526,13 @@
         <v>100</v>
       </c>
       <c r="C50" s="1">
-        <v>6468722</v>
+        <v>6455166</v>
       </c>
       <c r="D50" s="2">
-        <v>6.9510845552295958E-4</v>
+        <v>-1.1426232219352637E-3</v>
       </c>
       <c r="E50" s="1">
-        <v>4493.339999999851</v>
+        <v>-7384.2599999997765</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1543,13 +1543,13 @@
         <v>102</v>
       </c>
       <c r="C51" s="1">
-        <v>6457936</v>
+        <v>6467123</v>
       </c>
       <c r="D51" s="2">
-        <v>-9.7345875756816886E-4</v>
+        <v>7.0757515470374439E-4</v>
       </c>
       <c r="E51" s="1">
-        <v>-6292.660000000149</v>
+        <v>4572.7400000002235</v>
       </c>
     </row>
   </sheetData>
